--- a/data/trans_orig/P36B02-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18258</v>
+        <v>18025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40082</v>
+        <v>39883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04751205193099716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03125683286936924</v>
+        <v>0.03085727542676117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06861681633237608</v>
+        <v>0.06827679393787559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -765,19 +765,19 @@
         <v>28045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19431</v>
+        <v>18926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39540</v>
+        <v>39975</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03040687245040528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02106751419142142</v>
+        <v>0.02051937770630219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04286968567907989</v>
+        <v>0.04334107004968649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -786,19 +786,19 @@
         <v>55799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41322</v>
+        <v>42842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71588</v>
+        <v>72379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03703947283172982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02742943283513698</v>
+        <v>0.028438355702815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04751994818843656</v>
+        <v>0.04804556268966274</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>14688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8735</v>
+        <v>8147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24092</v>
+        <v>23502</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0251440941124073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01495347163414757</v>
+        <v>0.01394628133630089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04124336531309599</v>
+        <v>0.04023412655721439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>9632</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4616</v>
+        <v>4815</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18537</v>
+        <v>19166</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01044303206674583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005004527181959929</v>
+        <v>0.00521997825545282</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02009822348909963</v>
+        <v>0.02077978048599504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -857,19 +857,19 @@
         <v>24320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16344</v>
+        <v>16094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36112</v>
+        <v>35860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01614342649058475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0108489284848129</v>
+        <v>0.01068290668547242</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02397104553597947</v>
+        <v>0.02380377307253423</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>32420</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22618</v>
+        <v>22796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44797</v>
+        <v>45829</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05550048577015559</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03871928167458084</v>
+        <v>0.03902424805653794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07668786355629829</v>
+        <v>0.07845461184400744</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -907,19 +907,19 @@
         <v>28476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19605</v>
+        <v>19645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39273</v>
+        <v>40034</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03087424779234554</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02125592845416198</v>
+        <v>0.02129957225382515</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04257976827686101</v>
+        <v>0.04340471587699425</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -928,19 +928,19 @@
         <v>60896</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47876</v>
+        <v>45601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78659</v>
+        <v>76620</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04042316808210562</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03178029536538276</v>
+        <v>0.03027024755255569</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05221426621234522</v>
+        <v>0.05086028324436692</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>38524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27986</v>
+        <v>29027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52725</v>
+        <v>52698</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06595036931695289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04790955036070992</v>
+        <v>0.04969217031354248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0902614054213367</v>
+        <v>0.09021487995094875</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -978,19 +978,19 @@
         <v>53358</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40792</v>
+        <v>41608</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70775</v>
+        <v>69693</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05785101863115991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04422675993536924</v>
+        <v>0.04511159079990705</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07673499347387161</v>
+        <v>0.07556154170382065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -999,19 +999,19 @@
         <v>91882</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74838</v>
+        <v>74033</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111775</v>
+        <v>111264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06099157360212785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04967729709339796</v>
+        <v>0.04914348664113033</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07419638550222295</v>
+        <v>0.07385734992287328</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>470755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449761</v>
+        <v>451496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>488350</v>
+        <v>490002</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8058929988694871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7699522830154418</v>
+        <v>0.7729231037109248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8360137897707831</v>
+        <v>0.8388419493553501</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>768</v>
@@ -1049,19 +1049,19 @@
         <v>802822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>780260</v>
+        <v>781303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>821818</v>
+        <v>821361</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8704248290593435</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8459631566821985</v>
+        <v>0.8470946718265386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8910206328425571</v>
+        <v>0.8905250982932111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1228</v>
@@ -1070,19 +1070,19 @@
         <v>1273577</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1243614</v>
+        <v>1245782</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1300456</v>
+        <v>1303221</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.845402358993452</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.825513142948564</v>
+        <v>0.8269523899004643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8632447155191371</v>
+        <v>0.8650803971360406</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>23296</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15431</v>
+        <v>15315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36589</v>
+        <v>33965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02163022881237778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01432788649157</v>
+        <v>0.01422012150581833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03397240018004739</v>
+        <v>0.03153596830650544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1195,19 +1195,19 @@
         <v>24920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15732</v>
+        <v>16378</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36027</v>
+        <v>36295</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02356374836300213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01487620694539953</v>
+        <v>0.01548653997143962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0340666462723123</v>
+        <v>0.03431992693560039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1216,19 +1216,19 @@
         <v>48216</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35490</v>
+        <v>35339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63814</v>
+        <v>63902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02258816856742261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01662644248013194</v>
+        <v>0.01655589160655382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02989557699100429</v>
+        <v>0.02993721451426554</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>9667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4645</v>
+        <v>4643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17320</v>
+        <v>16878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008976087466859625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004313072973169442</v>
+        <v>0.004311082492980066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01608142630011727</v>
+        <v>0.01567152518786803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1266,19 +1266,19 @@
         <v>9335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3986</v>
+        <v>4574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17050</v>
+        <v>17376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008827038971932957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003768793973146938</v>
+        <v>0.004325428704757453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01612235648864973</v>
+        <v>0.01643024126047493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1287,19 +1287,19 @@
         <v>19002</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11942</v>
+        <v>11469</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29306</v>
+        <v>30552</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008902243124983823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005594502060241311</v>
+        <v>0.00537317562250024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01372954167754187</v>
+        <v>0.01431319429812316</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>29897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20182</v>
+        <v>21390</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41085</v>
+        <v>42466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02775931573093302</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01873900732261418</v>
+        <v>0.01986015347796425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03814753157384693</v>
+        <v>0.03942920809925755</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1337,19 +1337,19 @@
         <v>24520</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16125</v>
+        <v>16318</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36394</v>
+        <v>35943</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0231859836287703</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01524798968239375</v>
+        <v>0.01543038107052628</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0344135380621032</v>
+        <v>0.03398699957052439</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -1358,19 +1358,19 @@
         <v>54417</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41429</v>
+        <v>41128</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70334</v>
+        <v>69662</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02549351157484381</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01940870344454633</v>
+        <v>0.01926783371629184</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03295022360034591</v>
+        <v>0.0326356712896472</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>66711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52752</v>
+        <v>52579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81897</v>
+        <v>84084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06194118864350912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04897979307378679</v>
+        <v>0.04881909574502893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0760405690733534</v>
+        <v>0.07807162976755053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1408,19 +1408,19 @@
         <v>54585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40782</v>
+        <v>41480</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69464</v>
+        <v>68612</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0516147844161343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03856273036935295</v>
+        <v>0.03922347599040228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06568460489239202</v>
+        <v>0.06487897905094295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -1429,19 +1429,19 @@
         <v>121296</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100942</v>
+        <v>101840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144122</v>
+        <v>143742</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05682509186917288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04728962253912099</v>
+        <v>0.0477103951219391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06751860705184708</v>
+        <v>0.06734052656909104</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>947440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926545</v>
+        <v>923472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>969075</v>
+        <v>967134</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8796931793463204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8602919028263578</v>
+        <v>0.8574389712176337</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8997810770437031</v>
+        <v>0.8979791934949841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>917</v>
@@ -1479,19 +1479,19 @@
         <v>944179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>921932</v>
+        <v>923313</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>961558</v>
+        <v>964257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8928084446201603</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8717719519553156</v>
+        <v>0.8730779360133892</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9092423886930903</v>
+        <v>0.9117942086939488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1840</v>
@@ -1500,19 +1500,19 @@
         <v>1891619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1859304</v>
+        <v>1862239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1916941</v>
+        <v>1919868</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8861909848635768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8710517686732103</v>
+        <v>0.8724272043247963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8980537887604484</v>
+        <v>0.8994250272880409</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>24056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14661</v>
+        <v>14751</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36084</v>
+        <v>35131</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02144784331362691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01307181891340432</v>
+        <v>0.01315219968798556</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03217167064709416</v>
+        <v>0.03132278253855673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1625,19 +1625,19 @@
         <v>20203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12500</v>
+        <v>12305</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31356</v>
+        <v>31890</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02032622542511275</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01257636251632116</v>
+        <v>0.0123797032361055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03154708200387976</v>
+        <v>0.03208479966271415</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1646,19 +1646,19 @@
         <v>44259</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31756</v>
+        <v>32522</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58037</v>
+        <v>58411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02092087447086962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01501101607368066</v>
+        <v>0.01537301076216529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02743365195215382</v>
+        <v>0.02761067584227843</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>9558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4599</v>
+        <v>4740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18553</v>
+        <v>18605</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008521677444071105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004100853918774364</v>
+        <v>0.004226532365111607</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01654148548608295</v>
+        <v>0.01658832774027141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1696,19 +1696,19 @@
         <v>7029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3153</v>
+        <v>2897</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14763</v>
+        <v>14502</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007071768534186358</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003172578588838535</v>
+        <v>0.002914643488351818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01485323275160013</v>
+        <v>0.01459080295395853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1717,19 +1717,19 @@
         <v>16587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9612</v>
+        <v>10240</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27351</v>
+        <v>27188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007840467891183518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004543510460020231</v>
+        <v>0.004840523288969022</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01292841467445879</v>
+        <v>0.01285146690339883</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>32521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22008</v>
+        <v>22238</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46510</v>
+        <v>46271</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02899551487869119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01962215243883538</v>
+        <v>0.01982743257108865</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04146758958532377</v>
+        <v>0.04125488387945566</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1767,19 +1767,19 @@
         <v>17423</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10433</v>
+        <v>10823</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27520</v>
+        <v>27685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01752954855216519</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01049625860170187</v>
+        <v>0.01088928105905012</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0276879888292173</v>
+        <v>0.02785330552199096</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -1788,19 +1788,19 @@
         <v>49945</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36803</v>
+        <v>36550</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66003</v>
+        <v>66158</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02360846901569433</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01739676382287394</v>
+        <v>0.01727685109491582</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03119940599797899</v>
+        <v>0.03127230281855718</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>55779</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42994</v>
+        <v>42976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71245</v>
+        <v>73352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04973155554807308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03833312935678595</v>
+        <v>0.03831699816777231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06352138988323726</v>
+        <v>0.0654002108205493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1838,19 +1838,19 @@
         <v>42025</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30827</v>
+        <v>30737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56757</v>
+        <v>57512</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04228167436473704</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0310145527177539</v>
+        <v>0.0309245419342944</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05710301869758969</v>
+        <v>0.05786275173782384</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1859,19 +1859,19 @@
         <v>97804</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80365</v>
+        <v>79818</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119061</v>
+        <v>118924</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04623138378185544</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03798807432251984</v>
+        <v>0.03772941600437171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05627929842391131</v>
+        <v>0.05621471629526507</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>999681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>976613</v>
+        <v>976396</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1019762</v>
+        <v>1019129</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8913034088155377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8707364574660176</v>
+        <v>0.870542785139908</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9092078124252955</v>
+        <v>0.9086431344379668</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>896</v>
@@ -1909,19 +1909,19 @@
         <v>907259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>887233</v>
+        <v>887650</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>923760</v>
+        <v>923604</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9127907831237987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.892642085715756</v>
+        <v>0.8930615247546524</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9293922086188571</v>
+        <v>0.9292348355649787</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1880</v>
@@ -1930,19 +1930,19 @@
         <v>1906940</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1877149</v>
+        <v>1877055</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1930702</v>
+        <v>1930627</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9013988048403971</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8873170131334486</v>
+        <v>0.8872723135867902</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.912631073101717</v>
+        <v>0.9125955935386431</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>3789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10173</v>
+        <v>9203</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008472963695163987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002260235494148842</v>
+        <v>0.00223615485394418</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02274812352805273</v>
+        <v>0.02057910823008258</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>6263</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2155</v>
+        <v>2229</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12350</v>
+        <v>13155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01835711333166903</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006316113438105029</v>
+        <v>0.006532687020597585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03619922595395572</v>
+        <v>0.03855961264912493</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2076,19 +2076,19 @@
         <v>10052</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5089</v>
+        <v>5350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17970</v>
+        <v>17624</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01275028320583274</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006454662855389313</v>
+        <v>0.006786534439198574</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02279430418599231</v>
+        <v>0.02235515347306777</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>4660</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1851</v>
+        <v>1779</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10326</v>
+        <v>10315</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01042001626326707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004137984547126538</v>
+        <v>0.003977686861011441</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02308934796136106</v>
+        <v>0.02306483744530883</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9374</v>
+        <v>8655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007425063562582937</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02747797189987837</v>
+        <v>0.02536854909200277</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2147,19 +2147,19 @@
         <v>7193</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2825</v>
+        <v>2796</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14496</v>
+        <v>14433</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009123964494397254</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003583540921419357</v>
+        <v>0.003546925766988238</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01838796128014024</v>
+        <v>0.01830746468791639</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>14959</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8408</v>
+        <v>8282</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24164</v>
+        <v>24352</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03345022419119588</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0188013843989915</v>
+        <v>0.01851910962898927</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05403372854994433</v>
+        <v>0.05445506381638593</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2197,19 +2197,19 @@
         <v>7715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3687</v>
+        <v>3005</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14746</v>
+        <v>14270</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02261446279255307</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01080777227110092</v>
+        <v>0.008808371946795337</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0432220407833045</v>
+        <v>0.0418286396026417</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -2218,19 +2218,19 @@
         <v>22674</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15210</v>
+        <v>14640</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32684</v>
+        <v>33833</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02876109914272539</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01929288643343414</v>
+        <v>0.01857007387150962</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04145835716507171</v>
+        <v>0.04291527730954518</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>23754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15682</v>
+        <v>14751</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35756</v>
+        <v>34443</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0531174205666894</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03506708293782753</v>
+        <v>0.03298604799739714</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07995534510216865</v>
+        <v>0.07701997257213583</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2268,19 +2268,19 @@
         <v>13738</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7849</v>
+        <v>7569</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22662</v>
+        <v>23007</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04026888732626094</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02300667080510167</v>
+        <v>0.02218681848039768</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06642802263221756</v>
+        <v>0.06743700844588564</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2289,19 +2289,19 @@
         <v>37492</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26084</v>
+        <v>26195</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50697</v>
+        <v>50420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04755727792075176</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03308594268590763</v>
+        <v>0.03322763144796925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06430735272052478</v>
+        <v>0.06395592056555</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>400038</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>385882</v>
+        <v>386775</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>411348</v>
+        <v>412753</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8945393752836837</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8628857160942335</v>
+        <v>0.8648823233502176</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9198297203515421</v>
+        <v>0.9229721011043143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>310</v>
@@ -2339,19 +2339,19 @@
         <v>310909</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>299235</v>
+        <v>299171</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>320409</v>
+        <v>320658</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.911334472986934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8771159346641185</v>
+        <v>0.8769287539067733</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9391817175709577</v>
+        <v>0.9399112102570635</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>699</v>
@@ -2360,19 +2360,19 @@
         <v>710947</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>693775</v>
+        <v>691459</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>726694</v>
+        <v>726068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9018073752362928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8800249439362023</v>
+        <v>0.8770869765118441</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9217812294932618</v>
+        <v>0.9209873514587085</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>78895</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>63189</v>
+        <v>62436</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>98006</v>
+        <v>98167</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02442598906545267</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01956358820947472</v>
+        <v>0.0193303689354844</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03034277102707222</v>
+        <v>0.0303927741170621</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>76</v>
@@ -2485,19 +2485,19 @@
         <v>79431</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>64156</v>
+        <v>63118</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>96761</v>
+        <v>97340</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02396117341635296</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01935345684383174</v>
+        <v>0.01904030593147583</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02918914722038085</v>
+        <v>0.02936391228771548</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>152</v>
@@ -2506,19 +2506,19 @@
         <v>158325</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>135704</v>
+        <v>135492</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>185914</v>
+        <v>186359</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02419056215691389</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02073429574444434</v>
+        <v>0.020701847248228</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02840585236314194</v>
+        <v>0.02847379092468086</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>38573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27864</v>
+        <v>27569</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51724</v>
+        <v>54987</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0119422233443657</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008626641967084778</v>
+        <v>0.008535529672869024</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01601373827860665</v>
+        <v>0.01702425418924414</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2556,19 +2556,19 @@
         <v>28529</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19310</v>
+        <v>18341</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40865</v>
+        <v>39823</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008606088378048164</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00582504197365275</v>
+        <v>0.005532871002579156</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01232741313880384</v>
+        <v>0.01201306539644474</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -2577,19 +2577,19 @@
         <v>67102</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51992</v>
+        <v>52696</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>83407</v>
+        <v>85333</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01025248690130592</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007943927926956328</v>
+        <v>0.008051393104026038</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01274385341681058</v>
+        <v>0.01303811197274236</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>109797</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>88383</v>
+        <v>90442</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>132219</v>
+        <v>132039</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03399355109284095</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02736372706453974</v>
+        <v>0.02800116421577158</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.040935225120707</v>
+        <v>0.0408795636228417</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>78</v>
@@ -2627,19 +2627,19 @@
         <v>78135</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61442</v>
+        <v>63070</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96372</v>
+        <v>98261</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02357030284723536</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01853472116785682</v>
+        <v>0.01902585941372625</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02907168459925519</v>
+        <v>0.02964172145213135</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>185</v>
@@ -2648,19 +2648,19 @@
         <v>187932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163253</v>
+        <v>160915</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>217528</v>
+        <v>217259</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02871422558788405</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02494341449104121</v>
+        <v>0.02458625518608106</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03323624033278</v>
+        <v>0.03319509781954191</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>184768</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>156995</v>
+        <v>160547</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>212135</v>
+        <v>211152</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05720479152501944</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04860595764730783</v>
+        <v>0.04970588720485497</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06567754649808429</v>
+        <v>0.06537325824433246</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>161</v>
@@ -2698,19 +2698,19 @@
         <v>163706</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>141840</v>
+        <v>139750</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>190914</v>
+        <v>190164</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04938387106333561</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04278783123709388</v>
+        <v>0.04215739600919288</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05759137372067821</v>
+        <v>0.0573651635761219</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>351</v>
@@ -2719,19 +2719,19 @@
         <v>348474</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>313593</v>
+        <v>310602</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>384852</v>
+        <v>387029</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05324353262638253</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04791402523560947</v>
+        <v>0.04745704189034521</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05880170401366074</v>
+        <v>0.05913437100621387</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>2817914</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2782970</v>
+        <v>2774827</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2859032</v>
+        <v>2856357</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8724334449723212</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8616148193628106</v>
+        <v>0.8590937853319301</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8851638249944623</v>
+        <v>0.8843354568506751</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2891</v>
@@ -2769,19 +2769,19 @@
         <v>2965169</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2931870</v>
+        <v>2930709</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2996568</v>
+        <v>2999430</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8944785642950279</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8844336641571644</v>
+        <v>0.8840834435984903</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9039504295970197</v>
+        <v>0.9048138203792706</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5647</v>
@@ -2790,19 +2790,19 @@
         <v>5783082</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5726939</v>
+        <v>5723308</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5835963</v>
+        <v>5829895</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8835991927275136</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.875021040803622</v>
+        <v>0.8744661953144858</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8916787986604681</v>
+        <v>0.8907516167230857</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>42176</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29891</v>
+        <v>29877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57372</v>
+        <v>56070</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04043605174690846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02865826137907758</v>
+        <v>0.02864482524836171</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05500583261712418</v>
+        <v>0.05375725407451735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3155,19 +3155,19 @@
         <v>44581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32192</v>
+        <v>32808</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59494</v>
+        <v>60099</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03984358940145795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02877094683224536</v>
+        <v>0.02932158136968054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05317205254398779</v>
+        <v>0.05371247162126545</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3176,19 +3176,19 @@
         <v>86757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68407</v>
+        <v>68656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107805</v>
+        <v>108073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04012942283239409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03164147952664519</v>
+        <v>0.03175669941638275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04986519424218568</v>
+        <v>0.04998940616247873</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>11843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6127</v>
+        <v>6032</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21400</v>
+        <v>21739</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01135412513561822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00587400074208682</v>
+        <v>0.005782907861947103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02051748676265273</v>
+        <v>0.02084221240871982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3226,19 +3226,19 @@
         <v>12934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6269</v>
+        <v>6160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22452</v>
+        <v>22875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01155930383065974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005602728519147949</v>
+        <v>0.005505370452596029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02006631378478128</v>
+        <v>0.02044369603130015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -3247,19 +3247,19 @@
         <v>24776</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15700</v>
+        <v>15443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37645</v>
+        <v>37960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01146031537880442</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007262166200205426</v>
+        <v>0.007143335785732992</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0174127448617092</v>
+        <v>0.01755846513236659</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>49216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37039</v>
+        <v>36104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67268</v>
+        <v>66302</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04718605736774893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03551143502678016</v>
+        <v>0.03461465819929898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06449373620641576</v>
+        <v>0.06356740503444663</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -3297,19 +3297,19 @@
         <v>25757</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16263</v>
+        <v>16664</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36931</v>
+        <v>37006</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02302003776880858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01453503000992855</v>
+        <v>0.01489292622041818</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03300634670850376</v>
+        <v>0.03307380066628383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -3318,19 +3318,19 @@
         <v>74973</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57779</v>
+        <v>58452</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94367</v>
+        <v>94336</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03467893279745841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02672583075798751</v>
+        <v>0.02703699266033932</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04364958594511875</v>
+        <v>0.04363506685529775</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>38776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26901</v>
+        <v>28098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52107</v>
+        <v>52350</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03717649725314852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02579174553944995</v>
+        <v>0.02693931269202228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04995816542509142</v>
+        <v>0.05019044394778872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3368,19 +3368,19 @@
         <v>23886</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14867</v>
+        <v>14681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34287</v>
+        <v>35840</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02134800399776823</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01328715712424677</v>
+        <v>0.01312094881711494</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0306432287718668</v>
+        <v>0.03203134384460291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -3389,19 +3389,19 @@
         <v>62662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48756</v>
+        <v>47768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79373</v>
+        <v>80951</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02898445983074548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02255190775333883</v>
+        <v>0.02209516898480855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03671401844889035</v>
+        <v>0.037444001606776</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>901011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>875966</v>
+        <v>877470</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>921665</v>
+        <v>920876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8638472684965759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8398355236754096</v>
+        <v>0.8412771416516739</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8836497848021942</v>
+        <v>0.8828934851123699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>933</v>
@@ -3439,19 +3439,19 @@
         <v>1011746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>990266</v>
+        <v>993389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1031364</v>
+        <v>1032422</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9042290650013055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8850313694388692</v>
+        <v>0.8878222007602999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9217618417353544</v>
+        <v>0.922707206511706</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1778</v>
@@ -3460,19 +3460,19 @@
         <v>1912757</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1881093</v>
+        <v>1880533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1945439</v>
+        <v>1942088</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8847468691605976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8701004320621591</v>
+        <v>0.8698415383347623</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8998640037978453</v>
+        <v>0.8983140060932724</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>21609</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13438</v>
+        <v>13464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34650</v>
+        <v>33404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02211558690148317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01375373676217745</v>
+        <v>0.01377983416569329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03546285353845033</v>
+        <v>0.03418821545483122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3585,19 +3585,19 @@
         <v>32495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21766</v>
+        <v>22056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44287</v>
+        <v>46214</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02980037326148429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01996101064726569</v>
+        <v>0.02022724794160532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04061551182887186</v>
+        <v>0.04238248677932612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -3606,19 +3606,19 @@
         <v>54103</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38125</v>
+        <v>40342</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71321</v>
+        <v>71223</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02616860897195496</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01844045175877364</v>
+        <v>0.01951288387565137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0344963863241994</v>
+        <v>0.03444915745240416</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>7598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3014</v>
+        <v>3029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16510</v>
+        <v>16449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00777660629562898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003084579371001889</v>
+        <v>0.003100133617451001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01689728620733645</v>
+        <v>0.01683450508444362</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3656,19 +3656,19 @@
         <v>8316</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3157</v>
+        <v>3336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15391</v>
+        <v>15833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007626840229802512</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00289508969600216</v>
+        <v>0.003059188610314469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01411490747597053</v>
+        <v>0.01451995924731016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -3677,19 +3677,19 @@
         <v>15915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8850</v>
+        <v>8671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27940</v>
+        <v>27833</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007697618391246649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004280435357875436</v>
+        <v>0.00419391855431351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01351419279091317</v>
+        <v>0.0134621197300248</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>24591</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16293</v>
+        <v>16135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37433</v>
+        <v>38182</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02516835769240581</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01667516922311763</v>
+        <v>0.0165136975232008</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03831088982802905</v>
+        <v>0.03907749899177443</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -3727,19 +3727,19 @@
         <v>24259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15716</v>
+        <v>15196</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37035</v>
+        <v>36657</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0222477300146609</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01441328347652283</v>
+        <v>0.01393576521671525</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03396408937718241</v>
+        <v>0.03361818768002094</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -3748,19 +3748,19 @@
         <v>48850</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35177</v>
+        <v>35345</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65090</v>
+        <v>65680</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02362799366886656</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01701427760439261</v>
+        <v>0.01709575870905466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03148299293010162</v>
+        <v>0.03176801054197329</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>23065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14092</v>
+        <v>14884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36395</v>
+        <v>35486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02360576996872487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01442293605877133</v>
+        <v>0.01523295537498409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03724864208654937</v>
+        <v>0.03631834593014753</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -3798,19 +3798,19 @@
         <v>27625</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18637</v>
+        <v>18453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39172</v>
+        <v>41321</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02533426170297978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01709145151442583</v>
+        <v>0.01692344608520945</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03592433560302234</v>
+        <v>0.03789470771817466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -3819,19 +3819,19 @@
         <v>50689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37799</v>
+        <v>38179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67619</v>
+        <v>67352</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02451739129681111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01828282996837939</v>
+        <v>0.01846636270457839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03270609530564907</v>
+        <v>0.0325770270906104</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>900210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>879811</v>
+        <v>879250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916231</v>
+        <v>916798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9213336791417571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9004552373971965</v>
+        <v>0.8998811845639404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9377304455277381</v>
+        <v>0.9383109369784456</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>932</v>
@@ -3869,19 +3869,19 @@
         <v>997711</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>976472</v>
+        <v>976790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1014938</v>
+        <v>1015583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9149907947910725</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8955119847182206</v>
+        <v>0.8958039228583852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9307894451571785</v>
+        <v>0.9313805057091252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1789</v>
@@ -3890,19 +3890,19 @@
         <v>1897922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1871424</v>
+        <v>1871989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1924716</v>
+        <v>1923360</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9179883876711207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.905172152348365</v>
+        <v>0.90544514711624</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9309480684949076</v>
+        <v>0.930292342318097</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>18159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10609</v>
+        <v>10831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28510</v>
+        <v>29331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02051584844525895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01198565220445643</v>
+        <v>0.01223711178764026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03221067442094533</v>
+        <v>0.03313796169202329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4015,19 +4015,19 @@
         <v>11181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5697</v>
+        <v>5237</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21244</v>
+        <v>20458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01276656502553243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006504433554382231</v>
+        <v>0.005979367923589912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02425734548238757</v>
+        <v>0.02335973972043662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -4036,19 +4036,19 @@
         <v>29340</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18647</v>
+        <v>19689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42785</v>
+        <v>42400</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01666171262799529</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0105891901488599</v>
+        <v>0.01118120851735812</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02429719377592371</v>
+        <v>0.02407823817123409</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>6137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13872</v>
+        <v>13140</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006933049690073292</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00242374459861791</v>
+        <v>0.002425001367399542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01567263846398059</v>
+        <v>0.0148455534136751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4086,19 +4086,19 @@
         <v>7034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14293</v>
+        <v>14091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008031599874445242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003451539616091284</v>
+        <v>0.003450266934024581</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01632031964765678</v>
+        <v>0.01608891842717136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -4107,19 +4107,19 @@
         <v>13171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7733</v>
+        <v>7301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21398</v>
+        <v>21454</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007479417835787461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004391744769398841</v>
+        <v>0.004146213171125857</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01215140723253292</v>
+        <v>0.01218336880277063</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>15592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9103</v>
+        <v>8849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24322</v>
+        <v>24563</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01761576045591809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01028486772185026</v>
+        <v>0.009997890683543172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02747903120615974</v>
+        <v>0.02775065351224731</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -4157,19 +4157,19 @@
         <v>17982</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11048</v>
+        <v>11049</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28773</v>
+        <v>28261</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02053210086186248</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01261444028855193</v>
+        <v>0.01261597829150522</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03285371644866059</v>
+        <v>0.03226949616795104</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -4178,19 +4178,19 @@
         <v>33574</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23047</v>
+        <v>22967</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46437</v>
+        <v>46033</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01906621353720185</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01308811846814743</v>
+        <v>0.01304296217240768</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02637116591622229</v>
+        <v>0.02614149538886212</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>32676</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21791</v>
+        <v>23111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46177</v>
+        <v>46930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03691685141876275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02461892091767321</v>
+        <v>0.0261104117468946</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05217054132526081</v>
+        <v>0.05302181837542098</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -4228,19 +4228,19 @@
         <v>22439</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14264</v>
+        <v>14428</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33999</v>
+        <v>33934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02562178038412439</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01628740213977552</v>
+        <v>0.01647372307330503</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03882073125283522</v>
+        <v>0.03874664705366097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -4249,19 +4249,19 @@
         <v>55115</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41687</v>
+        <v>40411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72690</v>
+        <v>71756</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03129920453772077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02367339504919379</v>
+        <v>0.02294905099831174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04127970977643827</v>
+        <v>0.04074919974198847</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>812552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>793429</v>
+        <v>793805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>827669</v>
+        <v>826826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9180184899899869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8964133360566323</v>
+        <v>0.8968387000965675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9350974402280285</v>
+        <v>0.9341447515675</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>766</v>
@@ -4299,19 +4299,19 @@
         <v>817160</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>800420</v>
+        <v>799698</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>830877</v>
+        <v>831436</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9330479538540355</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.913934255849899</v>
+        <v>0.9131102079664565</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9487101933809213</v>
+        <v>0.9493492040416269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1528</v>
@@ -4320,19 +4320,19 @@
         <v>1629712</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1606536</v>
+        <v>1607356</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1651251</v>
+        <v>1651269</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9254934514612946</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9123322521295016</v>
+        <v>0.9127982587297255</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9377252668909858</v>
+        <v>0.9377357375354314</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>14084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8204</v>
+        <v>7344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24027</v>
+        <v>22885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02799952262894771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01630933663726317</v>
+        <v>0.01459944114746288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04776458441467337</v>
+        <v>0.04549542936491544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4445,19 +4445,19 @@
         <v>18610</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11437</v>
+        <v>11381</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28775</v>
+        <v>28281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04120055900517538</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02531976226092008</v>
+        <v>0.02519616682063021</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06370520681073316</v>
+        <v>0.06261158515402036</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -4466,19 +4466,19 @@
         <v>32694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23350</v>
+        <v>22427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44869</v>
+        <v>44989</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03424515426226237</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02445774114860228</v>
+        <v>0.02349113503339207</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04699719236064989</v>
+        <v>0.04712316149012263</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>2866</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7558</v>
+        <v>7570</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005697897591399944</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001799537468763278</v>
+        <v>0.001794495531833983</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01502435662527375</v>
+        <v>0.01504839238254873</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -4529,19 +4529,19 @@
         <v>2866</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7691</v>
+        <v>8271</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003002126712052951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0009526963701214537</v>
+        <v>0.0009537341212816185</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008055934196460951</v>
+        <v>0.008663227562032012</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>15060</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8790</v>
+        <v>8050</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26262</v>
+        <v>24066</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02993824148696939</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.017475096882871</v>
+        <v>0.01600231603319318</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05220771859868797</v>
+        <v>0.04784242875497119</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -4579,19 +4579,19 @@
         <v>4217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9608</v>
+        <v>9885</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009335587447501893</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002449514436569471</v>
+        <v>0.002453360409162403</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02127225364840794</v>
+        <v>0.02188529113409096</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -4600,19 +4600,19 @@
         <v>19276</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11671</v>
+        <v>11953</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30316</v>
+        <v>31430</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02019078044437609</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01222471843339393</v>
+        <v>0.01251975037627162</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03175433954144356</v>
+        <v>0.03292091709977524</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>18862</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11614</v>
+        <v>11826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29832</v>
+        <v>29117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03749701005770713</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02308804803384741</v>
+        <v>0.0235093551000412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05930453050581853</v>
+        <v>0.05788367535483482</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -4650,19 +4650,19 @@
         <v>16506</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9478</v>
+        <v>9777</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26771</v>
+        <v>26216</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03654267872603013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02098347901494422</v>
+        <v>0.02164546800239095</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05926863507916581</v>
+        <v>0.05803998260835627</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -4671,19 +4671,19 @@
         <v>35368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25163</v>
+        <v>24979</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49098</v>
+        <v>50109</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03704549990472258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02635610515509693</v>
+        <v>0.02616404473620289</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05142729881342235</v>
+        <v>0.05248571330192615</v>
       </c>
     </row>
     <row r="26">
@@ -4700,19 +4700,19 @@
         <v>452151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>435721</v>
+        <v>436918</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>465175</v>
+        <v>464577</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8988673282349758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8662050995001666</v>
+        <v>0.8685845220557239</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9247593146431258</v>
+        <v>0.923570071387474</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>374</v>
@@ -4721,19 +4721,19 @@
         <v>412358</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>398941</v>
+        <v>399127</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>423476</v>
+        <v>422751</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9129211748212926</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8832156505549833</v>
+        <v>0.8836273275141748</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9375341612967937</v>
+        <v>0.9359290396247236</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>786</v>
@@ -4742,19 +4742,19 @@
         <v>864509</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>842510</v>
+        <v>843582</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>879861</v>
+        <v>882161</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.905516438676586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8824738239146741</v>
+        <v>0.883597023627036</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9215967486630297</v>
+        <v>0.9240054419446239</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>96027</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>76690</v>
+        <v>77522</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117992</v>
+        <v>120038</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02817516089837336</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02250150260557963</v>
+        <v>0.022745444012463</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03461960698553057</v>
+        <v>0.03522013769838408</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>98</v>
@@ -4867,19 +4867,19 @@
         <v>106867</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>86668</v>
+        <v>87520</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128919</v>
+        <v>129601</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03021561570253656</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02450470521002944</v>
+        <v>0.0247455447555794</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03645076850126121</v>
+        <v>0.03664372316463855</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>185</v>
@@ -4888,19 +4888,19 @@
         <v>202894</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>176372</v>
+        <v>175153</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>238693</v>
+        <v>232380</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02921427471252832</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02539541807975368</v>
+        <v>0.02521994010030922</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03436888062810629</v>
+        <v>0.03345987123028964</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>28444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19399</v>
+        <v>18356</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41686</v>
+        <v>41023</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008345565782431615</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005691682537995673</v>
+        <v>0.005385827904505636</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01223091423733736</v>
+        <v>0.01203647737557882</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -4938,19 +4938,19 @@
         <v>28284</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19179</v>
+        <v>18193</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41341</v>
+        <v>40169</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007997108719038281</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005422706831656307</v>
+        <v>0.005143960184870735</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01168870476805882</v>
+        <v>0.01135747437496582</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -4959,19 +4959,19 @@
         <v>56728</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41803</v>
+        <v>42465</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>73689</v>
+        <v>74158</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008168111938576261</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006019076761144163</v>
+        <v>0.00611442371328135</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01061034421077311</v>
+        <v>0.01067785168124284</v>
       </c>
     </row>
     <row r="30">
@@ -4988,19 +4988,19 @@
         <v>104459</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>84266</v>
+        <v>84576</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126748</v>
+        <v>128387</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03064902027662101</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02472420722138279</v>
+        <v>0.0248151496349952</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03718891630934379</v>
+        <v>0.03766970018745857</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -5009,19 +5009,19 @@
         <v>72215</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54849</v>
+        <v>55786</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>92082</v>
+        <v>88253</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02041819365431329</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01550799688681341</v>
+        <v>0.01577306950932207</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02603549016074377</v>
+        <v>0.02495290814342396</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>163</v>
@@ -5030,19 +5030,19 @@
         <v>176674</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>152439</v>
+        <v>151897</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>209060</v>
+        <v>205332</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02543891062274701</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02194941310329895</v>
+        <v>0.02187136846832641</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03010216698766531</v>
+        <v>0.0295653539295323</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>113378</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>93055</v>
+        <v>93774</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>137099</v>
+        <v>137935</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03326591186933015</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0273028685950149</v>
+        <v>0.02751383027811431</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04022573201040636</v>
+        <v>0.04047116302250081</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>83</v>
@@ -5080,19 +5080,19 @@
         <v>90456</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72083</v>
+        <v>72706</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>113662</v>
+        <v>115371</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02557580932706844</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02038091321790875</v>
+        <v>0.0205570826736636</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03213702121749159</v>
+        <v>0.0326201366319968</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>189</v>
@@ -5101,19 +5101,19 @@
         <v>203834</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>174667</v>
+        <v>177376</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>236272</v>
+        <v>236734</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02934968115075297</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02514994548539277</v>
+        <v>0.02553997590101468</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03402035981588659</v>
+        <v>0.03408681224972929</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>3065924</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3023037</v>
+        <v>3026670</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3098572</v>
+        <v>3101396</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8995643411732439</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8869810945234945</v>
+        <v>0.8880470452027668</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.90914349286973</v>
+        <v>0.90997195478013</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3005</v>
@@ -5151,19 +5151,19 @@
         <v>3238976</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3202951</v>
+        <v>3203001</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3271932</v>
+        <v>3272303</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9157932725970435</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9056075566840056</v>
+        <v>0.9056217464968074</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9251113936430228</v>
+        <v>0.9252162001140436</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5881</v>
@@ -5172,19 +5172,19 @@
         <v>6304900</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6249991</v>
+        <v>6255442</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6355374</v>
+        <v>6350343</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9078290215753955</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8999228118438568</v>
+        <v>0.9007076774476031</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9150967210321032</v>
+        <v>0.9143722309660897</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>46643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33687</v>
+        <v>33882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62913</v>
+        <v>61756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04142424564986711</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02991756080168629</v>
+        <v>0.03009099806286546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05587326891872025</v>
+        <v>0.0548458374445186</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -5537,19 +5537,19 @@
         <v>29625</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19633</v>
+        <v>20293</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41487</v>
+        <v>43816</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02353682066851556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.015597919465742</v>
+        <v>0.01612279964191641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03296089840298533</v>
+        <v>0.03481125271668941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -5558,19 +5558,19 @@
         <v>76269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61349</v>
+        <v>58757</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96592</v>
+        <v>95543</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03198289077433655</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0257263489887264</v>
+        <v>0.02463937856186912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04050542873139928</v>
+        <v>0.04006550962179481</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>16460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9337</v>
+        <v>10339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26641</v>
+        <v>27398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01461837105030029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008291830450436449</v>
+        <v>0.009181954117033002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02366029829396946</v>
+        <v>0.02433250873066295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -5608,19 +5608,19 @@
         <v>6938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2876</v>
+        <v>2927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13866</v>
+        <v>14128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005512460842571954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002284629622338335</v>
+        <v>0.002325636590805038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01101602228736831</v>
+        <v>0.01122414931991004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -5629,19 +5629,19 @@
         <v>23399</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15427</v>
+        <v>15392</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34606</v>
+        <v>34271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009812082284560713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006469326842502877</v>
+        <v>0.006454405553399864</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01451190236894414</v>
+        <v>0.01437142257222629</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>52471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39691</v>
+        <v>38803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69242</v>
+        <v>68160</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04659994994502976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03525005373368444</v>
+        <v>0.03446107470548922</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06149403742851295</v>
+        <v>0.06053313768782756</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -5679,19 +5679,19 @@
         <v>41424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30330</v>
+        <v>30261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55490</v>
+        <v>56659</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03291094051275598</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02409644347889596</v>
+        <v>0.0240418150502522</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04408585264469015</v>
+        <v>0.04501482592972796</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -5700,19 +5700,19 @@
         <v>93896</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75103</v>
+        <v>76097</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114035</v>
+        <v>114841</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03937460610267552</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0314939743584196</v>
+        <v>0.03191085465228972</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04781978967872254</v>
+        <v>0.04815815417605153</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>71765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56115</v>
+        <v>55880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88935</v>
+        <v>89530</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06373462265096043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0498363844639037</v>
+        <v>0.04962774362457038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07898359322373139</v>
+        <v>0.07951196328752698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -5750,19 +5750,19 @@
         <v>74466</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59270</v>
+        <v>58856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94312</v>
+        <v>92969</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05916178504314967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04708897420480138</v>
+        <v>0.04676026935616515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07492915967892123</v>
+        <v>0.07386241585570652</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -5771,19 +5771,19 @@
         <v>146230</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124375</v>
+        <v>123747</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172072</v>
+        <v>172798</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06132098386904944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05215620096909171</v>
+        <v>0.0518926541867227</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07215728302377845</v>
+        <v>0.07246177688422652</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>938653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>910091</v>
+        <v>910135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>961619</v>
+        <v>964601</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8336228107038424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8082559456415597</v>
+        <v>0.808295243147366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8540186103971747</v>
+        <v>0.8566668415976588</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1043</v>
@@ -5821,19 +5821,19 @@
         <v>1106226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1080633</v>
+        <v>1083250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1128766</v>
+        <v>1127072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8788779929330068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8585449698027376</v>
+        <v>0.8606240751696921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8967854312521439</v>
+        <v>0.8954399038333587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1936</v>
@@ -5842,19 +5842,19 @@
         <v>2044880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2011219</v>
+        <v>2012727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2078082</v>
+        <v>2080847</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8575094369693778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8433940391836782</v>
+        <v>0.8440263357151704</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8714326944843048</v>
+        <v>0.8725923365590253</v>
       </c>
     </row>
     <row r="9">
@@ -5946,19 +5946,19 @@
         <v>21448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13449</v>
+        <v>13947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31718</v>
+        <v>32087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.023599432291566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01479823388745323</v>
+        <v>0.01534604170807613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03489976491662442</v>
+        <v>0.03530605287052178</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5967,19 +5967,19 @@
         <v>24446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16319</v>
+        <v>16228</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35118</v>
+        <v>35072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02428828730473944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01621352822908037</v>
+        <v>0.01612359606706622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03489249007294559</v>
+        <v>0.03484621173233855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -5988,19 +5988,19 @@
         <v>45893</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33307</v>
+        <v>33949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59203</v>
+        <v>60432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02396142024456904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01739021213964828</v>
+        <v>0.01772516249973684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03091068993764293</v>
+        <v>0.03155234873128886</v>
       </c>
     </row>
     <row r="11">
@@ -6017,19 +6017,19 @@
         <v>8695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3940</v>
+        <v>4029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16798</v>
+        <v>15958</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00956744146553353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004335807488132591</v>
+        <v>0.004432998288416192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01848303996062934</v>
+        <v>0.01755841331840636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -6038,19 +6038,19 @@
         <v>5708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1937</v>
+        <v>1917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11663</v>
+        <v>11521</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005671146769553332</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001924435086798433</v>
+        <v>0.001904518690265695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01158826108865054</v>
+        <v>0.0114469531109161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -6059,19 +6059,19 @@
         <v>14403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7812</v>
+        <v>8399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23173</v>
+        <v>23481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007519968899721826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004078610685968756</v>
+        <v>0.004385143784043719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01209896267201284</v>
+        <v>0.0122594927259646</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>34151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23467</v>
+        <v>24057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46720</v>
+        <v>46890</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03757679277134656</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02582073247668586</v>
+        <v>0.02647006050055689</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0514068284904508</v>
+        <v>0.05159371465578303</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -6109,19 +6109,19 @@
         <v>25029</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16368</v>
+        <v>16417</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37375</v>
+        <v>35938</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.024867687413584</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01626252829093307</v>
+        <v>0.01631145917016353</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0371348103344189</v>
+        <v>0.0357063944888272</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -6130,19 +6130,19 @@
         <v>59179</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45601</v>
+        <v>44517</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76555</v>
+        <v>74614</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03089825672968734</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0238089492122064</v>
+        <v>0.0232426825875331</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03997016450450964</v>
+        <v>0.03895687544730967</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>77944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60657</v>
+        <v>62653</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96375</v>
+        <v>95955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08576347384691346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0667416883751349</v>
+        <v>0.06893871521957384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1060438061252112</v>
+        <v>0.1055810492194192</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -6180,19 +6180,19 @@
         <v>72391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57652</v>
+        <v>56417</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93295</v>
+        <v>90538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07192498127791505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05728092739424911</v>
+        <v>0.0560536962667635</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09269457248137013</v>
+        <v>0.08995574467700304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -6201,19 +6201,19 @@
         <v>150335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128678</v>
+        <v>127390</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177408</v>
+        <v>176758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07849145360767297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0671841560535804</v>
+        <v>0.06651193937961505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09262698034675565</v>
+        <v>0.09228726374722038</v>
       </c>
     </row>
     <row r="14">
@@ -6230,19 +6230,19 @@
         <v>766587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>742703</v>
+        <v>743686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>789151</v>
+        <v>786080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8434928596246405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8172121287572742</v>
+        <v>0.8182938116616425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8683206155236016</v>
+        <v>0.8649410105090137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>830</v>
@@ -6251,19 +6251,19 @@
         <v>878902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>855717</v>
+        <v>857662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>899157</v>
+        <v>898676</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8732478972342081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.850211875641252</v>
+        <v>0.8521443492802712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8933720959140785</v>
+        <v>0.892894326636523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1574</v>
@@ -6272,19 +6272,19 @@
         <v>1645490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1613947</v>
+        <v>1613983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1672771</v>
+        <v>1676404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8591289005183488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8426601041849642</v>
+        <v>0.8426788673508573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8733729687774869</v>
+        <v>0.8752695408992173</v>
       </c>
     </row>
     <row r="15">
@@ -6376,19 +6376,19 @@
         <v>21926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14288</v>
+        <v>14011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33567</v>
+        <v>33281</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02671176406178338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01740712178096095</v>
+        <v>0.01706959301429261</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04089333522962345</v>
+        <v>0.04054478626099399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6397,19 +6397,19 @@
         <v>20491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12362</v>
+        <v>11993</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31796</v>
+        <v>29590</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0266092342735632</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01605327752730488</v>
+        <v>0.01557376914144649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04128916543930996</v>
+        <v>0.03842444559547003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -6418,19 +6418,19 @@
         <v>42417</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30164</v>
+        <v>30865</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57109</v>
+        <v>56376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02666213461206775</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01895983087361122</v>
+        <v>0.01940080604760116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03589697597153681</v>
+        <v>0.03543621174151757</v>
       </c>
     </row>
     <row r="17">
@@ -6447,19 +6447,19 @@
         <v>6311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2793</v>
+        <v>2445</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14434</v>
+        <v>13882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007688665288407909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003403015803441577</v>
+        <v>0.002978477335908637</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01758463263480826</v>
+        <v>0.01691228361957342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -6468,19 +6468,19 @@
         <v>6621</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2787</v>
+        <v>2825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12799</v>
+        <v>13449</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008598110066118183</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003618637962003637</v>
+        <v>0.003668777085299292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01662071733918057</v>
+        <v>0.01746437845828067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -6489,19 +6489,19 @@
         <v>12932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7210</v>
+        <v>7117</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21595</v>
+        <v>21583</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008128881196857717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004532010496259276</v>
+        <v>0.0044735888064956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01357392348446618</v>
+        <v>0.01356605015225949</v>
       </c>
     </row>
     <row r="18">
@@ -6518,19 +6518,19 @@
         <v>27804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18668</v>
+        <v>18891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41108</v>
+        <v>40171</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03387302759551902</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02274263303311889</v>
+        <v>0.02301399723048397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05008075163193414</v>
+        <v>0.04893881447562482</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -6539,19 +6539,19 @@
         <v>17841</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10784</v>
+        <v>11168</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28389</v>
+        <v>28394</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02316697260462697</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01400420464032831</v>
+        <v>0.01450227883243656</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03686461670698155</v>
+        <v>0.03687184585387356</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>43</v>
@@ -6560,19 +6560,19 @@
         <v>45645</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33996</v>
+        <v>33301</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60784</v>
+        <v>60133</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02869077152099949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02136896305209552</v>
+        <v>0.0209318859014687</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03820653856053167</v>
+        <v>0.03779739739168407</v>
       </c>
     </row>
     <row r="19">
@@ -6589,19 +6589,19 @@
         <v>46988</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35170</v>
+        <v>33367</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62224</v>
+        <v>62603</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05724439998050068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04284673361169157</v>
+        <v>0.04064933259566184</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07580579947784585</v>
+        <v>0.07626711895735398</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -6610,19 +6610,19 @@
         <v>38700</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27476</v>
+        <v>27913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52295</v>
+        <v>51888</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05025373740084448</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03567934392741412</v>
+        <v>0.03624727171245386</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06790754550103104</v>
+        <v>0.06737898878726453</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -6631,19 +6631,19 @@
         <v>85688</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68210</v>
+        <v>68990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>104750</v>
+        <v>105395</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05386057618647389</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04287443299048439</v>
+        <v>0.0433646586361923</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06584208757192957</v>
+        <v>0.06624752009534438</v>
       </c>
     </row>
     <row r="20">
@@ -6660,19 +6660,19 @@
         <v>717808</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>694983</v>
+        <v>696591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>735987</v>
+        <v>735246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.874482143073789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8466744705313595</v>
+        <v>0.8486339756006022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8966287441069662</v>
+        <v>0.8957256161100546</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>646</v>
@@ -6681,19 +6681,19 @@
         <v>686432</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>668367</v>
+        <v>669158</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>702168</v>
+        <v>702755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8913719456548471</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8679134943441111</v>
+        <v>0.8689410033727528</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9118062567299045</v>
+        <v>0.9125675929710153</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1335</v>
@@ -6702,19 +6702,19 @@
         <v>1404240</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1377567</v>
+        <v>1377369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1428973</v>
+        <v>1430038</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8826576364836012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8658913850034977</v>
+        <v>0.8657674880806002</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.898204043806439</v>
+        <v>0.8988732309559174</v>
       </c>
     </row>
     <row r="21">
@@ -6806,19 +6806,19 @@
         <v>19019</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10703</v>
+        <v>11051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30467</v>
+        <v>29300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03768173335680748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02120477672127552</v>
+        <v>0.02189559529020816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06036391393329707</v>
+        <v>0.05805113572173304</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -6827,19 +6827,19 @@
         <v>16276</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9404</v>
+        <v>9472</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27041</v>
+        <v>25472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03331350128819174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01924749445761798</v>
+        <v>0.01938730204219329</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05534621391964784</v>
+        <v>0.05213451310377345</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -6848,19 +6848,19 @@
         <v>35295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25929</v>
+        <v>24067</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50673</v>
+        <v>49186</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03553310471983859</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02610321393200799</v>
+        <v>0.02422896088334945</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0510142359782781</v>
+        <v>0.04951711114925015</v>
       </c>
     </row>
     <row r="23">
@@ -6877,19 +6877,19 @@
         <v>7161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2866</v>
+        <v>2280</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15618</v>
+        <v>15616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01418764032532027</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005679225368692037</v>
+        <v>0.004517170685695724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03094374810658281</v>
+        <v>0.03093883257735204</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -6898,19 +6898,19 @@
         <v>3936</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1058</v>
+        <v>946</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10104</v>
+        <v>8981</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008056390449188112</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002165857029864489</v>
+        <v>0.001935665892168715</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02067985703826644</v>
+        <v>0.01838234766829991</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -6919,19 +6919,19 @@
         <v>11097</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5152</v>
+        <v>5359</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19343</v>
+        <v>20250</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01117182549283493</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00518694753847654</v>
+        <v>0.005394631421065482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01947352589585655</v>
+        <v>0.02038635132845256</v>
       </c>
     </row>
     <row r="24">
@@ -6948,19 +6948,19 @@
         <v>16277</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9054</v>
+        <v>8973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26664</v>
+        <v>26686</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.032248556125395</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01793779797780331</v>
+        <v>0.01777883522629874</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05282914908244591</v>
+        <v>0.0528733036076233</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -6969,19 +6969,19 @@
         <v>12196</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6360</v>
+        <v>6402</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21472</v>
+        <v>20359</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02496178581896033</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01301627178831873</v>
+        <v>0.01310391428745504</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04394705372337601</v>
+        <v>0.04167000660194231</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6990,19 +6990,19 @@
         <v>28473</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19484</v>
+        <v>18820</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>41702</v>
+        <v>40932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02866436849399438</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01961528280971824</v>
+        <v>0.0189468986610052</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04198282052722974</v>
+        <v>0.04120781374815826</v>
       </c>
     </row>
     <row r="25">
@@ -7019,19 +7019,19 @@
         <v>30137</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19476</v>
+        <v>19624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41912</v>
+        <v>42658</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05971036475152124</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03858639825768623</v>
+        <v>0.03888071196307917</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08303935002696257</v>
+        <v>0.08451709873950811</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -7040,19 +7040,19 @@
         <v>34673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23878</v>
+        <v>25154</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47763</v>
+        <v>47901</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07096622497647839</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04887075516396776</v>
+        <v>0.05148268469521711</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09775861945263983</v>
+        <v>0.09804128066289357</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -7061,19 +7061,19 @@
         <v>64810</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49851</v>
+        <v>49794</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83060</v>
+        <v>82941</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06524685256470784</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05018666160493355</v>
+        <v>0.05012935444902596</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08361947124947523</v>
+        <v>0.08350008734014032</v>
       </c>
     </row>
     <row r="26">
@@ -7090,19 +7090,19 @@
         <v>432131</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>415569</v>
+        <v>414937</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>448572</v>
+        <v>447957</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.856171705440956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8233576152369337</v>
+        <v>0.8221059905410473</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8887451847588838</v>
+        <v>0.8875262162378077</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>390</v>
@@ -7111,19 +7111,19 @@
         <v>421503</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>404069</v>
+        <v>404901</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>434851</v>
+        <v>435792</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8627020974671814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8270179594486701</v>
+        <v>0.8287218396750473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8900207482158058</v>
+        <v>0.8919465805957777</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>796</v>
@@ -7132,19 +7132,19 @@
         <v>853635</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>826762</v>
+        <v>827885</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>873340</v>
+        <v>873319</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8593838487286243</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8323299732893157</v>
+        <v>0.8334607939244495</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8792217429579889</v>
+        <v>0.8792006203642164</v>
       </c>
     </row>
     <row r="27">
@@ -7236,19 +7236,19 @@
         <v>109036</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>89357</v>
+        <v>88069</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>131279</v>
+        <v>129704</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03244754279371862</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0265912470171919</v>
+        <v>0.02620817253415928</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03906657891234862</v>
+        <v>0.03859787973982472</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -7257,19 +7257,19 @@
         <v>90839</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73329</v>
+        <v>74034</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>111676</v>
+        <v>112097</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02577844577680678</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02080936532374656</v>
+        <v>0.02100961182694357</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03169180521923131</v>
+        <v>0.03181116586471331</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>188</v>
@@ -7278,19 +7278,19 @@
         <v>199875</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>170572</v>
+        <v>172872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>226655</v>
+        <v>232734</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02903382539853236</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02477732720963149</v>
+        <v>0.02511141074909927</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03292395631189756</v>
+        <v>0.03380699955167506</v>
       </c>
     </row>
     <row r="29">
@@ -7307,19 +7307,19 @@
         <v>38627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27242</v>
+        <v>27073</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52223</v>
+        <v>52336</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01149492199458847</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00810681520662555</v>
+        <v>0.008056575873849288</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01554076378218188</v>
+        <v>0.01557456436098035</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -7328,19 +7328,19 @@
         <v>23204</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15413</v>
+        <v>15467</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34702</v>
+        <v>33730</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006584832895883026</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004373875037936328</v>
+        <v>0.004389144301316918</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009847723753860532</v>
+        <v>0.009571918253983309</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -7349,19 +7349,19 @@
         <v>61831</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48549</v>
+        <v>47005</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>78773</v>
+        <v>79679</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008981589751008849</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007052267887933399</v>
+        <v>0.006827977438099446</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01144253196567493</v>
+        <v>0.01157414476401098</v>
       </c>
     </row>
     <row r="30">
@@ -7378,19 +7378,19 @@
         <v>130703</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>108739</v>
+        <v>110600</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>157848</v>
+        <v>156181</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03889525242261663</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03235911048663224</v>
+        <v>0.0329129662312398</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04697338962802933</v>
+        <v>0.04647728451650141</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -7399,19 +7399,19 @@
         <v>96490</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>78630</v>
+        <v>80323</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>115548</v>
+        <v>117533</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02738204608825766</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02231373001352457</v>
+        <v>0.02279435016805951</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0327904562790741</v>
+        <v>0.03335395456853374</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>212</v>
@@ -7420,19 +7420,19 @@
         <v>227192</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>199292</v>
+        <v>199255</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>260454</v>
+        <v>258012</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0330019759208198</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0289491049584829</v>
+        <v>0.02894382026956466</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03783350012410015</v>
+        <v>0.03747881886176116</v>
       </c>
     </row>
     <row r="31">
@@ -7449,19 +7449,19 @@
         <v>226834</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>197619</v>
+        <v>198031</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>256452</v>
+        <v>259996</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06750258967281132</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0588086506353639</v>
+        <v>0.05893126828262018</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0763163854939669</v>
+        <v>0.0773708661977541</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>207</v>
@@ -7470,19 +7470,19 @@
         <v>220229</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>193419</v>
+        <v>191839</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>251247</v>
+        <v>252015</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06249718550798008</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05488891982859952</v>
+        <v>0.05444048041797203</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07129940374656028</v>
+        <v>0.07151742090973905</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>415</v>
@@ -7491,19 +7491,19 @@
         <v>447064</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>408268</v>
+        <v>407829</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>488636</v>
+        <v>492664</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0649404684105037</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05930498091191154</v>
+        <v>0.05924129629706087</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0709792257133933</v>
+        <v>0.07156442948931806</v>
       </c>
     </row>
     <row r="32">
@@ -7520,19 +7520,19 @@
         <v>2855179</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2811213</v>
+        <v>2812745</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2894381</v>
+        <v>2901836</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.849659693116265</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8365758665699122</v>
+        <v>0.8370317461584089</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8613255657513929</v>
+        <v>0.863544024690025</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2909</v>
@@ -7541,19 +7541,19 @@
         <v>3093064</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3051285</v>
+        <v>3052516</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3126028</v>
+        <v>3128474</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8777574897310725</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8659013291844539</v>
+        <v>0.8662505958355118</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.887112185370785</v>
+        <v>0.8878062638412182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5641</v>
@@ -7562,19 +7562,19 @@
         <v>5948244</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5887652</v>
+        <v>5887244</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6004111</v>
+        <v>6009466</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8640421405191353</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8552405312973775</v>
+        <v>0.8551812789479157</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8721573742565071</v>
+        <v>0.8729352222079649</v>
       </c>
     </row>
     <row r="33">
@@ -7906,19 +7906,19 @@
         <v>32838</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22259</v>
+        <v>20955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50802</v>
+        <v>47019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06584115033707727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0446309343145248</v>
+        <v>0.04201677371305615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1018610226936623</v>
+        <v>0.09427556011369001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -7927,19 +7927,19 @@
         <v>32951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23852</v>
+        <v>23781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44545</v>
+        <v>43984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05284239653746359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03825015704251758</v>
+        <v>0.03813584309801812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07143355165010985</v>
+        <v>0.07053461280791223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -7948,19 +7948,19 @@
         <v>65789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51147</v>
+        <v>51419</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83523</v>
+        <v>83834</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05861881694367552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04557259436089105</v>
+        <v>0.04581512048167633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07442031901333342</v>
+        <v>0.07469710947252262</v>
       </c>
     </row>
     <row r="5">
@@ -7977,19 +7977,19 @@
         <v>18104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10632</v>
+        <v>11114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28763</v>
+        <v>30222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03629886821209483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02131778208848883</v>
+        <v>0.02228481890922137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05767092932307112</v>
+        <v>0.06059625231992613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -7998,19 +7998,19 @@
         <v>11422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6520</v>
+        <v>6704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17699</v>
+        <v>18394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01831667244674422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0104556161785757</v>
+        <v>0.01075021091970784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02838356509805167</v>
+        <v>0.02949672930977074</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -8019,19 +8019,19 @@
         <v>29526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20692</v>
+        <v>20694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41730</v>
+        <v>43468</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0263076479024495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01843672300974812</v>
+        <v>0.01843822896873825</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03718205854822228</v>
+        <v>0.03873058698857001</v>
       </c>
     </row>
     <row r="6">
@@ -8048,19 +8048,19 @@
         <v>24937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16338</v>
+        <v>16665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36241</v>
+        <v>36295</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05000010710019295</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03275879778148624</v>
+        <v>0.03341434956629494</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07266469648490666</v>
+        <v>0.07277283260330181</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -8069,19 +8069,19 @@
         <v>32883</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24192</v>
+        <v>24230</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44574</v>
+        <v>44033</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05273201134977659</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03879511744754959</v>
+        <v>0.0388563463247807</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07148081346258525</v>
+        <v>0.07061246936662559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -8090,19 +8090,19 @@
         <v>57820</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45360</v>
+        <v>45859</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71923</v>
+        <v>72634</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05151800055317385</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04041585861108495</v>
+        <v>0.04086124796949726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06408436217679934</v>
+        <v>0.06471801250733931</v>
       </c>
     </row>
     <row r="7">
@@ -8119,19 +8119,19 @@
         <v>84951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67920</v>
+        <v>68980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104963</v>
+        <v>106775</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1703320737374178</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1361838321014661</v>
+        <v>0.1383080661966152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.210457751969511</v>
+        <v>0.2140899980241281</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>155</v>
@@ -8140,19 +8140,19 @@
         <v>111110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95947</v>
+        <v>95679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128544</v>
+        <v>128555</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1781806405035966</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1538646595791074</v>
+        <v>0.1534346544237736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2061391687120085</v>
+        <v>0.2061565456524317</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>230</v>
@@ -8161,19 +8161,19 @@
         <v>196061</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>172077</v>
+        <v>173939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>222219</v>
+        <v>226567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1746928737586784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1533224500938153</v>
+        <v>0.1549818662597151</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1979993615002937</v>
+        <v>0.2018736491302822</v>
       </c>
     </row>
     <row r="8">
@@ -8190,19 +8190,19 @@
         <v>337910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312911</v>
+        <v>314234</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360115</v>
+        <v>359015</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6775278006132172</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6274048993966356</v>
+        <v>0.6300574693651607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7220503319804523</v>
+        <v>0.719845835280256</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>600</v>
@@ -8211,19 +8211,19 @@
         <v>435214</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>414857</v>
+        <v>412105</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>454633</v>
+        <v>453253</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.697928279162419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6652833144015901</v>
+        <v>0.6608689355497075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7290693439481734</v>
+        <v>0.7268568943477437</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>909</v>
@@ -8232,19 +8232,19 @@
         <v>773124</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741890</v>
+        <v>742299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>802377</v>
+        <v>803990</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6888626608420227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6610323366317368</v>
+        <v>0.6613973640102452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7149269976754934</v>
+        <v>0.7163641957321717</v>
       </c>
     </row>
     <row r="9">
@@ -8336,19 +8336,19 @@
         <v>50986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36349</v>
+        <v>36405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70370</v>
+        <v>70587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05310277082484863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03785795309223621</v>
+        <v>0.03791672131271311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07329153990674868</v>
+        <v>0.07351781736027729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -8357,19 +8357,19 @@
         <v>54318</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42829</v>
+        <v>42844</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69397</v>
+        <v>67868</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04867824089331908</v>
+        <v>0.04867824089331909</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03838230629023103</v>
+        <v>0.03839589458429544</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06219206443256289</v>
+        <v>0.06082178751283714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -8378,19 +8378,19 @@
         <v>105304</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85361</v>
+        <v>87366</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129652</v>
+        <v>130974</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05072457140372155</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04111817066760021</v>
+        <v>0.04208403718467903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06245339529194262</v>
+        <v>0.06309006977167191</v>
       </c>
     </row>
     <row r="11">
@@ -8407,19 +8407,19 @@
         <v>20832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12693</v>
+        <v>13013</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32385</v>
+        <v>33726</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02169674326356961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01322038123537353</v>
+        <v>0.01355313244928024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03372989133712284</v>
+        <v>0.03512637360855261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -8428,19 +8428,19 @@
         <v>23568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16282</v>
+        <v>15956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33635</v>
+        <v>32462</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02112121709420726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01459127201639121</v>
+        <v>0.01429907822947185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03014313908215389</v>
+        <v>0.02909142411597013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -8449,19 +8449,19 @@
         <v>44400</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33060</v>
+        <v>33198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58455</v>
+        <v>57162</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02138739605064481</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01592516188324109</v>
+        <v>0.0159916379606056</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02815753533416106</v>
+        <v>0.02753465517952393</v>
       </c>
     </row>
     <row r="12">
@@ -8478,19 +8478,19 @@
         <v>49786</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36625</v>
+        <v>34970</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68903</v>
+        <v>67972</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05185257427183473</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03814546623735882</v>
+        <v>0.0364221525821081</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0717633537300945</v>
+        <v>0.07079373555454342</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -8499,19 +8499,19 @@
         <v>38692</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29818</v>
+        <v>29488</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49603</v>
+        <v>48981</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03467510159721606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02672253460126297</v>
+        <v>0.02642640373984806</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04445304803585815</v>
+        <v>0.04389534856649908</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>101</v>
@@ -8520,19 +8520,19 @@
         <v>88478</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71967</v>
+        <v>71261</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>111160</v>
+        <v>107749</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04261962609352236</v>
+        <v>0.04261962609352237</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03466632031698657</v>
+        <v>0.03432626398155011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05354575797061989</v>
+        <v>0.05190270524545302</v>
       </c>
     </row>
     <row r="13">
@@ -8549,19 +8549,19 @@
         <v>227078</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>200706</v>
+        <v>196339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261973</v>
+        <v>258261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.236505859237985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2090384581075433</v>
+        <v>0.2044911251780385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2728501079271903</v>
+        <v>0.2689831603177926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>358</v>
@@ -8570,19 +8570,19 @@
         <v>261520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>236280</v>
+        <v>238573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288111</v>
+        <v>288278</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2343685827181823</v>
+        <v>0.2343685827181822</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2117488959446166</v>
+        <v>0.213803885876805</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2581992449703459</v>
+        <v>0.2583487043960555</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>554</v>
@@ -8591,19 +8591,19 @@
         <v>488598</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>453573</v>
+        <v>449803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>532667</v>
+        <v>529076</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2353570660642825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2184856054095062</v>
+        <v>0.2166696311392328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2565850070058448</v>
+        <v>0.2548550727647113</v>
       </c>
     </row>
     <row r="14">
@@ -8620,19 +8620,19 @@
         <v>611456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>576723</v>
+        <v>575505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643104</v>
+        <v>645382</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6368420524017622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6006673475129293</v>
+        <v>0.599399003596176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6698039544172449</v>
+        <v>0.6721769922222457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1083</v>
@@ -8641,19 +8641,19 @@
         <v>737751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>708841</v>
+        <v>709954</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765476</v>
+        <v>765886</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6611568576970753</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6352483871722432</v>
+        <v>0.6362457377121116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6860031151885054</v>
+        <v>0.6863707323626406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1689</v>
@@ -8662,19 +8662,19 @@
         <v>1349207</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1304420</v>
+        <v>1300102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1388709</v>
+        <v>1390598</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6499113403878288</v>
+        <v>0.6499113403878287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6283373365704122</v>
+        <v>0.6262577689982002</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6689392938663969</v>
+        <v>0.6698495239062653</v>
       </c>
     </row>
     <row r="15">
@@ -8766,19 +8766,19 @@
         <v>56226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40600</v>
+        <v>40595</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74968</v>
+        <v>75235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05372861379203409</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03879651937277213</v>
+        <v>0.03879204253834413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0716384207302191</v>
+        <v>0.07189389910614569</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -8787,19 +8787,19 @@
         <v>48302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37073</v>
+        <v>37647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60985</v>
+        <v>62761</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04610530312056923</v>
+        <v>0.04610530312056924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03538720500641945</v>
+        <v>0.03593491410135726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05821147543589171</v>
+        <v>0.05990722633850557</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -8808,19 +8808,19 @@
         <v>104528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84806</v>
+        <v>86637</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128020</v>
+        <v>127960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0499148427688663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04049736711082282</v>
+        <v>0.04137171197513313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0611331127225307</v>
+        <v>0.06110418392943445</v>
       </c>
     </row>
     <row r="17">
@@ -8837,19 +8837,19 @@
         <v>38673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27654</v>
+        <v>27354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51944</v>
+        <v>52046</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03695560981506256</v>
+        <v>0.03695560981506257</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02642537575346997</v>
+        <v>0.02613874503405059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04963688517115044</v>
+        <v>0.04973478342563569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -8858,19 +8858,19 @@
         <v>21510</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14849</v>
+        <v>14078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32007</v>
+        <v>30324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02053160712712254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01417372738297571</v>
+        <v>0.01343771767593305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03055136388517053</v>
+        <v>0.02894457402529488</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -8879,19 +8879,19 @@
         <v>60183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46010</v>
+        <v>46460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75478</v>
+        <v>77370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02873905033911779</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02197119875126641</v>
+        <v>0.02218577960632893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03604279615133028</v>
+        <v>0.03694646451835663</v>
       </c>
     </row>
     <row r="18">
@@ -8908,19 +8908,19 @@
         <v>42379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30967</v>
+        <v>30672</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59051</v>
+        <v>59072</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04049628407503685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0295916845786182</v>
+        <v>0.02930943325368358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05642813715809294</v>
+        <v>0.05644788162081595</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -8929,19 +8929,19 @@
         <v>43294</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33137</v>
+        <v>32544</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56002</v>
+        <v>56316</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04132559235154429</v>
+        <v>0.04132559235154431</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03162996410081481</v>
+        <v>0.0310638608946995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05345491413088286</v>
+        <v>0.05375515317829575</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -8950,19 +8950,19 @@
         <v>85673</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68741</v>
+        <v>68139</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>106644</v>
+        <v>105118</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04091116837013137</v>
+        <v>0.04091116837013139</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03282586891511406</v>
+        <v>0.03253826498040946</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0509253390473004</v>
+        <v>0.05019671037126029</v>
       </c>
     </row>
     <row r="19">
@@ -8979,19 +8979,19 @@
         <v>183762</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158410</v>
+        <v>157684</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>210121</v>
+        <v>211789</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1755999149092712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1513739172749468</v>
+        <v>0.1506809079505518</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2007880983667036</v>
+        <v>0.2023820252959696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>190</v>
@@ -9000,19 +9000,19 @@
         <v>142646</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122171</v>
+        <v>123007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>163593</v>
+        <v>162671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.136158904473647</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.116615617073163</v>
+        <v>0.1174132972896145</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1561534810633528</v>
+        <v>0.1552731064507815</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>359</v>
@@ -9021,19 +9021,19 @@
         <v>326407</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>290540</v>
+        <v>295163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>357387</v>
+        <v>361244</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1558684636794424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1387408471807993</v>
+        <v>0.1409482982868577</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1706618581572487</v>
+        <v>0.1725036550357313</v>
       </c>
     </row>
     <row r="20">
@@ -9050,19 +9050,19 @@
         <v>725440</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>692211</v>
+        <v>691700</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>757247</v>
+        <v>756972</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6932195774085953</v>
+        <v>0.6932195774085954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6614662653698348</v>
+        <v>0.6609788197747232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7236141857555355</v>
+        <v>0.7233512339407362</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1175</v>
@@ -9071,19 +9071,19 @@
         <v>791890</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>765280</v>
+        <v>768475</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>814827</v>
+        <v>818171</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7558785929271169</v>
+        <v>0.755878592927117</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7304784736082502</v>
+        <v>0.7335285347149306</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.777771950394973</v>
+        <v>0.7809644216404503</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1911</v>
@@ -9092,19 +9092,19 @@
         <v>1517330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1473415</v>
+        <v>1476977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1557663</v>
+        <v>1557976</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.724566474842442</v>
+        <v>0.7245664748424421</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.70359572212671</v>
+        <v>0.7052968756857616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7438266290945555</v>
+        <v>0.7439759890745135</v>
       </c>
     </row>
     <row r="21">
@@ -9196,19 +9196,19 @@
         <v>34340</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21896</v>
+        <v>22469</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51941</v>
+        <v>51612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03518742326380209</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02243635854563404</v>
+        <v>0.02302337093154694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.053221673226491</v>
+        <v>0.05288507099444179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -9217,19 +9217,19 @@
         <v>37622</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28351</v>
+        <v>27930</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49940</v>
+        <v>50912</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04142212495627426</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03121458468498437</v>
+        <v>0.03075162480378596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05498513134317596</v>
+        <v>0.05605452570353018</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -9238,19 +9238,19 @@
         <v>71962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56482</v>
+        <v>55493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91611</v>
+        <v>93931</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03819280097225553</v>
+        <v>0.03819280097225552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02997719741462835</v>
+        <v>0.02945188751688265</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04862132048031932</v>
+        <v>0.04985234747034662</v>
       </c>
     </row>
     <row r="23">
@@ -9267,19 +9267,19 @@
         <v>14861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7203</v>
+        <v>8133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24382</v>
+        <v>25168</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01522704629343742</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007381137912509267</v>
+        <v>0.00833326037138187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02498379228064026</v>
+        <v>0.02578840112016664</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -9288,19 +9288,19 @@
         <v>21215</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13793</v>
+        <v>13817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>31984</v>
+        <v>30418</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02335780818552756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01518611445507698</v>
+        <v>0.01521233116164826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03521511485794072</v>
+        <v>0.03349073058738179</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>41</v>
@@ -9309,19 +9309,19 @@
         <v>36075</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26682</v>
+        <v>26405</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>50083</v>
+        <v>50204</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01914640150055737</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01416090251700878</v>
+        <v>0.01401414417461749</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02658072711257715</v>
+        <v>0.02664485243801537</v>
       </c>
     </row>
     <row r="24">
@@ -9338,19 +9338,19 @@
         <v>56756</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42092</v>
+        <v>40964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>75276</v>
+        <v>74659</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05815537957015834</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04313012951524803</v>
+        <v>0.04197422850984325</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07713272259405614</v>
+        <v>0.07650045200147738</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>57</v>
@@ -9359,19 +9359,19 @@
         <v>43016</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32543</v>
+        <v>33490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56631</v>
+        <v>56145</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0473617248627226</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03583053414907146</v>
+        <v>0.0368733499486858</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06235213142698087</v>
+        <v>0.0618161438716909</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>105</v>
@@ -9380,19 +9380,19 @@
         <v>99772</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>81868</v>
+        <v>80602</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>123436</v>
+        <v>122822</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05295240261143103</v>
+        <v>0.05295240261143104</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04345000002824187</v>
+        <v>0.04277851857663603</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0655116552125085</v>
+        <v>0.06518617948056103</v>
       </c>
     </row>
     <row r="25">
@@ -9409,19 +9409,19 @@
         <v>96309</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78266</v>
+        <v>78779</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120283</v>
+        <v>120155</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09868427956270426</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08019667664261707</v>
+        <v>0.08072254919951059</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1232499035333323</v>
+        <v>0.1231189606045207</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -9430,19 +9430,19 @@
         <v>88592</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72802</v>
+        <v>74767</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>106128</v>
+        <v>105474</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09754121674269703</v>
+        <v>0.09754121674269704</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08015607050453004</v>
+        <v>0.08231967504767705</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1168490055902881</v>
+        <v>0.1161290324416429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>213</v>
@@ -9451,19 +9451,19 @@
         <v>184901</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>160878</v>
+        <v>161993</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>213305</v>
+        <v>212912</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09813327717509053</v>
+        <v>0.09813327717509052</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08538358166581765</v>
+        <v>0.08597515177072966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1132084297765552</v>
+        <v>0.1129997368161054</v>
       </c>
     </row>
     <row r="26">
@@ -9480,19 +9480,19 @@
         <v>773664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>744815</v>
+        <v>743842</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>800405</v>
+        <v>798417</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7927458713098979</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7631854409436369</v>
+        <v>0.7621883309396793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8201472193747705</v>
+        <v>0.8181101275969899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1062</v>
@@ -9501,19 +9501,19 @@
         <v>717806</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>695135</v>
+        <v>695100</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>739046</v>
+        <v>739225</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7903171252527785</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7653550623847583</v>
+        <v>0.7653175216593793</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8137028016074409</v>
+        <v>0.8138993434069177</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1828</v>
@@ -9522,19 +9522,19 @@
         <v>1491470</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1454819</v>
+        <v>1453929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1529344</v>
+        <v>1523660</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7915751177406656</v>
+        <v>0.7915751177406655</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7721230469119845</v>
+        <v>0.7716508641893727</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8116763019321587</v>
+        <v>0.8086592884856898</v>
       </c>
     </row>
     <row r="27">
@@ -9626,19 +9626,19 @@
         <v>174390</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>146225</v>
+        <v>146467</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>207425</v>
+        <v>208410</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0500935231809696</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04200326892288223</v>
+        <v>0.04207262746722131</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05958288826417788</v>
+        <v>0.05986578145865856</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>236</v>
@@ -9647,19 +9647,19 @@
         <v>173193</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>151971</v>
+        <v>149425</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>200005</v>
+        <v>194705</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04686805936136125</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04112511556272557</v>
+        <v>0.04043638027082413</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05412386838625053</v>
+        <v>0.05268948611978343</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>383</v>
@@ -9668,19 +9668,19 @@
         <v>347582</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>310718</v>
+        <v>311518</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>388574</v>
+        <v>389030</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04843269262561981</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04329602297475199</v>
+        <v>0.04340739501987358</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05414459889645137</v>
+        <v>0.05420807540684176</v>
       </c>
     </row>
     <row r="29">
@@ -9697,19 +9697,19 @@
         <v>92469</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75270</v>
+        <v>75177</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>113850</v>
+        <v>114120</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02656183708180478</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02162147616617455</v>
+        <v>0.0215946971179922</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0327034179716334</v>
+        <v>0.03278099271100533</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>106</v>
@@ -9718,19 +9718,19 @@
         <v>77715</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>64085</v>
+        <v>62597</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>96147</v>
+        <v>94003</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02103051503783647</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0173420624935384</v>
+        <v>0.01693945270365857</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02601846521325943</v>
+        <v>0.02543826320224162</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -9739,19 +9739,19 @@
         <v>170184</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>146727</v>
+        <v>146224</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>198036</v>
+        <v>196444</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02371369207820716</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02044517467516168</v>
+        <v>0.02037509150263327</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02759470136503885</v>
+        <v>0.02737286906454726</v>
       </c>
     </row>
     <row r="30">
@@ -9768,19 +9768,19 @@
         <v>173857</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>146037</v>
+        <v>147916</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>206527</v>
+        <v>206059</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04994036950344423</v>
+        <v>0.04994036950344424</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04194911354331068</v>
+        <v>0.04248902428262084</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0593250498112045</v>
+        <v>0.05919048388896391</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>216</v>
@@ -9789,19 +9789,19 @@
         <v>157886</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>136991</v>
+        <v>136047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>180194</v>
+        <v>179782</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04272579340158144</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03707133748989335</v>
+        <v>0.03681611473582426</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04876271960058946</v>
+        <v>0.04865120460469134</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>374</v>
@@ -9810,19 +9810,19 @@
         <v>331742</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>296628</v>
+        <v>292206</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>368742</v>
+        <v>366374</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04622549651028662</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04133259885135529</v>
+        <v>0.04071643646326438</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0513811780990244</v>
+        <v>0.05105109152130363</v>
       </c>
     </row>
     <row r="31">
@@ -9839,19 +9839,19 @@
         <v>592100</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>543449</v>
+        <v>544384</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>642360</v>
+        <v>644923</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1700808437708512</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1561059205989078</v>
+        <v>0.156374503231847</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1845181073596237</v>
+        <v>0.1852544775994512</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>826</v>
@@ -9860,19 +9860,19 @@
         <v>603868</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>569547</v>
+        <v>565775</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>647506</v>
+        <v>644229</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1634140648952849</v>
+        <v>0.1634140648952848</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1541264829972937</v>
+        <v>0.1531056949484389</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1752232004909139</v>
+        <v>0.1743362555227471</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1356</v>
@@ -9881,19 +9881,19 @@
         <v>1195967</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1128888</v>
+        <v>1133805</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1256172</v>
+        <v>1260651</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1666480382329346</v>
+        <v>0.1666480382329347</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1573011045833459</v>
+        <v>0.1579862646165818</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1750371085206983</v>
+        <v>0.1756611683314283</v>
       </c>
     </row>
     <row r="32">
@@ -9910,19 +9910,19 @@
         <v>2448469</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2390164</v>
+        <v>2385538</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2511090</v>
+        <v>2503372</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7033234264629302</v>
+        <v>0.7033234264629301</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6865753745570206</v>
+        <v>0.6852465237577159</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7213114999882646</v>
+        <v>0.719094528601306</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3920</v>
@@ -9931,19 +9931,19 @@
         <v>2682662</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2630917</v>
+        <v>2635090</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2726908</v>
+        <v>2735869</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.725961567303936</v>
+        <v>0.7259615673039361</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7119587471508955</v>
+        <v>0.7130879886225624</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7379351859819868</v>
+        <v>0.740360239693397</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6337</v>
@@ -9952,19 +9952,19 @@
         <v>5131130</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5053004</v>
+        <v>5052212</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5214914</v>
+        <v>5208489</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7149800805529518</v>
+        <v>0.7149800805529517</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.704093843474437</v>
+        <v>0.7039834575686268</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7266546504436985</v>
+        <v>0.725759413712602</v>
       </c>
     </row>
     <row r="33">
